--- a/dados/csv/2023/3/sint_qtd_por_origem_modalidade_2023.xlsx
+++ b/dados/csv/2023/3/sint_qtd_por_origem_modalidade_2023.xlsx
@@ -14,45 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>origem</t>
   </si>
   <si>
-    <t>geral_modalidade</t>
-  </si>
-  <si>
-    <t>geral_status</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
+    <t>aon</t>
+  </si>
+  <si>
+    <t>aon_sucesso</t>
+  </si>
+  <si>
+    <t>aon_falha</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>flex_sucesso</t>
+  </si>
+  <si>
+    <t>flex_falha</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>sub_sucesso</t>
+  </si>
+  <si>
+    <t>sub_falha</t>
+  </si>
+  <si>
     <t>apoia.se</t>
   </si>
   <si>
     <t>catarse</t>
-  </si>
-  <si>
-    <t>flex</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>aon</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>published</t>
-  </si>
-  <si>
-    <t>successful</t>
-  </si>
-  <si>
-    <t>waiting_funds</t>
   </si>
 </sst>
 </file>
@@ -410,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,131 +429,96 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>632</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>5</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>627</v>
+      </c>
+      <c r="J2">
+        <v>137</v>
+      </c>
+      <c r="K2">
+        <v>490</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>2855</v>
+      </c>
+      <c r="C3">
+        <v>1335</v>
       </c>
       <c r="D3">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
+        <v>830</v>
+      </c>
+      <c r="E3">
         <v>505</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
+      <c r="F3">
+        <v>1463</v>
+      </c>
+      <c r="G3">
+        <v>1383</v>
+      </c>
+      <c r="H3">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
+      <c r="I3">
         <v>57</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
